--- a/paper_tables.xlsx
+++ b/paper_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE2C126-451E-4E30-BABB-878C4386A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043B9D4-6FED-406D-AB10-CD95C5329725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5880" windowWidth="14325" windowHeight="8010" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
+    <workbookView xWindow="14265" yWindow="75" windowWidth="14325" windowHeight="7995" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Metrics" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,11 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="B1" sqref="B1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,142 +484,142 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.62195999999999996</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.65476000000000001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.65476000000000001</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.58957999999999999</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.58291000000000004</v>
+      <c r="D2" s="2">
+        <v>0.73129</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.68571000000000004</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.68571000000000004</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.65832999999999997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.64136000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.62195999999999996</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.65476000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.65476000000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.58957999999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.58291000000000004</v>
+      <c r="D3" s="2">
+        <v>0.73129</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.68571000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.68571000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.65832999999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.64136000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.81845000000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.73094999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.73094999999999999</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.71082999999999996</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.72697999999999996</v>
+      <c r="D4" s="2">
+        <v>0.80245</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.82857000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.82857000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.79981999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.81201999999999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.71667000000000003</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.71667000000000003</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.78166999999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.71033000000000002</v>
+      <c r="D5" s="2">
+        <v>0.80245</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.82857000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.82857000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.79981999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.73333000000000004</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.79586000000000001</v>
+      <c r="D6" s="2">
+        <v>0.83816000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.82838999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.83816000000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.85714000000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.85714000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.82838999999999996</v>
       </c>
     </row>

--- a/paper_tables.xlsx
+++ b/paper_tables.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043B9D4-6FED-406D-AB10-CD95C5329725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA88C6-429D-48EE-A854-41B1739BBFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="75" windowWidth="14325" windowHeight="7995" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Type Prevalence by Loc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Precision</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>PfHRP2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Asosa</t>
+  </si>
+  <si>
+    <t>Bambasi</t>
+  </si>
+  <si>
+    <t>Kurmuk</t>
+  </si>
+  <si>
+    <t>Sherkole</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -84,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +142,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -130,9 +157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F1E95E-A192-4941-88AA-64D7CD4D51AF}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H7"/>
     </sheetView>
   </sheetViews>
@@ -634,4 +663,519 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E87E8-100F-4DBF-91BE-B6C66029CE80}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.9509803921568627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.9509803921568627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.78431372549019607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.78431372549019607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.69607843137254899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.20588235294117646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.57843137254901966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper_tables.xlsx
+++ b/paper_tables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA88C6-429D-48EE-A854-41B1739BBFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5758452-4FC2-4AF7-AADF-00058712A9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
+    <workbookView xWindow="14175" yWindow="3495" windowWidth="18120" windowHeight="12630" firstSheet="1" activeTab="2" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Type Prevalence by Loc" sheetId="2" r:id="rId2"/>
+    <sheet name="DNA - Test Matches" sheetId="3" r:id="rId3"/>
+    <sheet name="RDTqPCR Confustion Matrix" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="132">
   <si>
     <t>Precision</t>
   </si>
@@ -94,6 +96,342 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Parasitemia</t>
+  </si>
+  <si>
+    <t>Pf18sqPCR</t>
+  </si>
+  <si>
+    <t>qPCRcateg34</t>
+  </si>
+  <si>
+    <t>paradencateg</t>
+  </si>
+  <si>
+    <t>DNA_id</t>
+  </si>
+  <si>
+    <t>HShr3</t>
+  </si>
+  <si>
+    <t>HShr12</t>
+  </si>
+  <si>
+    <t>HShr14</t>
+  </si>
+  <si>
+    <t>HShr17</t>
+  </si>
+  <si>
+    <t>HShr31</t>
+  </si>
+  <si>
+    <t>HShr35</t>
+  </si>
+  <si>
+    <t>HShr44</t>
+  </si>
+  <si>
+    <t>HShr45</t>
+  </si>
+  <si>
+    <t>HShr48</t>
+  </si>
+  <si>
+    <t>HShr49</t>
+  </si>
+  <si>
+    <t>HShr64</t>
+  </si>
+  <si>
+    <t>HShr65</t>
+  </si>
+  <si>
+    <t>HShr70</t>
+  </si>
+  <si>
+    <t>HShr71</t>
+  </si>
+  <si>
+    <t>HShr77</t>
+  </si>
+  <si>
+    <t>HShr80</t>
+  </si>
+  <si>
+    <t>HShr82</t>
+  </si>
+  <si>
+    <t>HShr86</t>
+  </si>
+  <si>
+    <t>HShr87</t>
+  </si>
+  <si>
+    <t>HShr88</t>
+  </si>
+  <si>
+    <t>HShr96</t>
+  </si>
+  <si>
+    <t>HShr98</t>
+  </si>
+  <si>
+    <t>HShr105</t>
+  </si>
+  <si>
+    <t>HShr114</t>
+  </si>
+  <si>
+    <t>HShr118</t>
+  </si>
+  <si>
+    <t>HShr122</t>
+  </si>
+  <si>
+    <t>HShr126</t>
+  </si>
+  <si>
+    <t>HShr133</t>
+  </si>
+  <si>
+    <t>HShr146</t>
+  </si>
+  <si>
+    <t>HShr148</t>
+  </si>
+  <si>
+    <t>HShr161</t>
+  </si>
+  <si>
+    <t>HShr182</t>
+  </si>
+  <si>
+    <t>HBas7</t>
+  </si>
+  <si>
+    <t>HBas9</t>
+  </si>
+  <si>
+    <t>HBas13</t>
+  </si>
+  <si>
+    <t>HBas15</t>
+  </si>
+  <si>
+    <t>HBas17</t>
+  </si>
+  <si>
+    <t>HBas18</t>
+  </si>
+  <si>
+    <t>HBas21</t>
+  </si>
+  <si>
+    <t>HBas23</t>
+  </si>
+  <si>
+    <t>HBas24</t>
+  </si>
+  <si>
+    <t>HBas25</t>
+  </si>
+  <si>
+    <t>HBas37</t>
+  </si>
+  <si>
+    <t>HBas47</t>
+  </si>
+  <si>
+    <t>HBas48</t>
+  </si>
+  <si>
+    <t>HBas49</t>
+  </si>
+  <si>
+    <t>HBas50</t>
+  </si>
+  <si>
+    <t>HBas64</t>
+  </si>
+  <si>
+    <t>HBas66</t>
+  </si>
+  <si>
+    <t>HBas68</t>
+  </si>
+  <si>
+    <t>HBas75</t>
+  </si>
+  <si>
+    <t>HBas79</t>
+  </si>
+  <si>
+    <t>HBas80</t>
+  </si>
+  <si>
+    <t>HBas81</t>
+  </si>
+  <si>
+    <t>HBas92</t>
+  </si>
+  <si>
+    <t>HBas95</t>
+  </si>
+  <si>
+    <t>HBas100</t>
+  </si>
+  <si>
+    <t>HKum9</t>
+  </si>
+  <si>
+    <t>HKum11</t>
+  </si>
+  <si>
+    <t>HKum19</t>
+  </si>
+  <si>
+    <t>HKum34</t>
+  </si>
+  <si>
+    <t>HKum47</t>
+  </si>
+  <si>
+    <t>HKum57</t>
+  </si>
+  <si>
+    <t>HKum67</t>
+  </si>
+  <si>
+    <t>HAss14</t>
+  </si>
+  <si>
+    <t>HAss23</t>
+  </si>
+  <si>
+    <t>HAss35</t>
+  </si>
+  <si>
+    <t>HAss39</t>
+  </si>
+  <si>
+    <t>HAss42</t>
+  </si>
+  <si>
+    <t>LShr3</t>
+  </si>
+  <si>
+    <t>LShr5</t>
+  </si>
+  <si>
+    <t>LShr44</t>
+  </si>
+  <si>
+    <t>LShr61</t>
+  </si>
+  <si>
+    <t>LShr64</t>
+  </si>
+  <si>
+    <t>LShr73</t>
+  </si>
+  <si>
+    <t>LShr86</t>
+  </si>
+  <si>
+    <t>LShr108</t>
+  </si>
+  <si>
+    <t>LShr112</t>
+  </si>
+  <si>
+    <t>LShr116</t>
+  </si>
+  <si>
+    <t>LShr132</t>
+  </si>
+  <si>
+    <t>LShr133</t>
+  </si>
+  <si>
+    <t>LShr157</t>
+  </si>
+  <si>
+    <t>LShr165</t>
+  </si>
+  <si>
+    <t>LShr171</t>
+  </si>
+  <si>
+    <t>LShr177</t>
+  </si>
+  <si>
+    <t>LBas1</t>
+  </si>
+  <si>
+    <t>LBas30</t>
+  </si>
+  <si>
+    <t>LBas37</t>
+  </si>
+  <si>
+    <t>LBas56</t>
+  </si>
+  <si>
+    <t>LBas57</t>
+  </si>
+  <si>
+    <t>LBas67</t>
+  </si>
+  <si>
+    <t>LBas82</t>
+  </si>
+  <si>
+    <t>LBas98</t>
+  </si>
+  <si>
+    <t>LKum12</t>
+  </si>
+  <si>
+    <t>LKum17</t>
+  </si>
+  <si>
+    <t>LKum28</t>
+  </si>
+  <si>
+    <t>LKum58</t>
+  </si>
+  <si>
+    <t>LKum61</t>
+  </si>
+  <si>
+    <t>LKum74</t>
+  </si>
+  <si>
+    <t>LAss15</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>RDT</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
@@ -154,10 +492,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +851,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -539,8 +877,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,8 +899,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -585,8 +923,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,8 +945,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -631,8 +969,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -669,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E87E8-100F-4DBF-91BE-B6C66029CE80}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -699,19 +1037,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.97058823529411764</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.84615384615384615</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.9509803921568627</v>
       </c>
     </row>
@@ -719,19 +1057,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.97058823529411764</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.84615384615384615</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.92156862745098034</v>
       </c>
     </row>
@@ -739,19 +1077,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.61764705882352944</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.69230769230769229</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.6470588235294118</v>
       </c>
     </row>
@@ -759,19 +1097,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -779,19 +1117,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.61538461538461542</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.625</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.55882352941176472</v>
       </c>
     </row>
@@ -799,19 +1137,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.97058823529411764</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.84615384615384615</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.9375</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.92156862745098034</v>
       </c>
     </row>
@@ -819,19 +1157,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.9375</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.9509803921568627</v>
       </c>
     </row>
@@ -839,19 +1177,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.82352941176470584</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.76923076923076927</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.78431372549019607</v>
       </c>
     </row>
@@ -859,19 +1197,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.82352941176470584</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.76923076923076927</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.78431372549019607</v>
       </c>
     </row>
@@ -879,19 +1217,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.67647058823529416</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.53846153846153844</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.69607843137254899</v>
       </c>
     </row>
@@ -899,19 +1237,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -919,19 +1257,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.38461538461538464</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.25</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.20588235294117646</v>
       </c>
     </row>
@@ -939,19 +1277,19 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.55882352941176472</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.61538461538461542</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.625</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.57843137254901966</v>
       </c>
     </row>
@@ -959,19 +1297,19 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
@@ -979,19 +1317,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -999,19 +1337,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1019,19 +1357,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1039,19 +1377,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1059,19 +1397,19 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>0.92307692307692313</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.97058823529411764</v>
       </c>
     </row>
@@ -1079,19 +1417,19 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1099,19 +1437,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1119,19 +1457,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1139,19 +1477,19 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1159,20 +1497,2254 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2570E-2E87-432E-894F-42B5D3587C38}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>36.69</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9600</v>
+      </c>
+      <c r="D4">
+        <v>22.52</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>29.28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3360</v>
+      </c>
+      <c r="D6">
+        <v>29.69</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>35.4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13200</v>
+      </c>
+      <c r="D9">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>35.32</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1400</v>
+      </c>
+      <c r="D11">
+        <v>22.92</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>35.43</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2040</v>
+      </c>
+      <c r="D13">
+        <v>33.53</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>7200</v>
+      </c>
+      <c r="D14">
+        <v>21.84</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>33.89</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="D16">
+        <v>33.1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>320</v>
+      </c>
+      <c r="D17">
+        <v>22.97</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>280</v>
+      </c>
+      <c r="D18">
+        <v>28.96</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>23.81</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10320</v>
+      </c>
+      <c r="D20">
+        <v>17.88</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4040</v>
+      </c>
+      <c r="D21">
+        <v>31.74</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>34.96</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>160</v>
+      </c>
+      <c r="D23">
+        <v>24.95</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>35.4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>34.35</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>11880</v>
+      </c>
+      <c r="D26">
+        <v>22.11</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>160</v>
+      </c>
+      <c r="D27">
+        <v>27.73</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>34.6</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>35.97</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>8600</v>
+      </c>
+      <c r="D30">
+        <v>28.55</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>9800</v>
+      </c>
+      <c r="D31">
+        <v>28.75</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>8760</v>
+      </c>
+      <c r="D32">
+        <v>28.78</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+      <c r="D33">
+        <v>32.81</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>10120</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>10880</v>
+      </c>
+      <c r="D36">
+        <v>25.68</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>27.76</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>25.32</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>34.5</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>9760</v>
+      </c>
+      <c r="D41">
+        <v>19.57</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>14200</v>
+      </c>
+      <c r="D42">
+        <v>18.79</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>10600</v>
+      </c>
+      <c r="D43">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>12080</v>
+      </c>
+      <c r="D45">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>5120</v>
+      </c>
+      <c r="D46">
+        <v>19.77</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>13800</v>
+      </c>
+      <c r="D47">
+        <v>19.84</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>8680</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3560</v>
+      </c>
+      <c r="D49">
+        <v>24.92</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3240</v>
+      </c>
+      <c r="D50">
+        <v>25.2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2880</v>
+      </c>
+      <c r="D51">
+        <v>24.65</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3480</v>
+      </c>
+      <c r="D52">
+        <v>25.52</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>33.5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1480</v>
+      </c>
+      <c r="D54">
+        <v>25.33</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2680</v>
+      </c>
+      <c r="D55">
+        <v>25.58</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>25.47</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>24.75</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>25.73</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>26.95</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>19.45</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>8280</v>
+      </c>
+      <c r="D63">
+        <v>22.77</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>36.35</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>560</v>
+      </c>
+      <c r="D66">
+        <v>22.37</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>30.08</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>400</v>
+      </c>
+      <c r="D70">
+        <v>25.51</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>31.85</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>8000</v>
+      </c>
+      <c r="D73">
+        <v>18.62</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>36.24</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <v>24.98</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>35.58</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>2400</v>
+      </c>
+      <c r="D77">
+        <v>28.51</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>8400</v>
+      </c>
+      <c r="D78">
+        <v>20.57</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>2400</v>
+      </c>
+      <c r="D79">
+        <v>23.52</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>560</v>
+      </c>
+      <c r="D80">
+        <v>30.2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>400</v>
+      </c>
+      <c r="D81">
+        <v>17.71</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>200</v>
+      </c>
+      <c r="D82">
+        <v>22.94</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>8000</v>
+      </c>
+      <c r="D83">
+        <v>22.51</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>200</v>
+      </c>
+      <c r="D84">
+        <v>26.78</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>6000</v>
+      </c>
+      <c r="D85">
+        <v>24.11</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>6800</v>
+      </c>
+      <c r="D86">
+        <v>19.54</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4000</v>
+      </c>
+      <c r="D87">
+        <v>35.42</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>3200</v>
+      </c>
+      <c r="D89">
+        <v>21.55</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>800</v>
+      </c>
+      <c r="D90">
+        <v>25.14</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>3600</v>
+      </c>
+      <c r="D91">
+        <v>25.12</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>3000</v>
+      </c>
+      <c r="D92">
+        <v>19.38</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>600</v>
+      </c>
+      <c r="D93">
+        <v>26</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1400</v>
+      </c>
+      <c r="D94">
+        <v>24.27</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>28.26</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>34.94</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>33.64</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>4000</v>
+      </c>
+      <c r="D99">
+        <v>20.14</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>360</v>
+      </c>
+      <c r="D100">
+        <v>22.12</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C20C9-786A-4054-90F3-8E11C8948E08}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>(B3+C4)/D5</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <f>B3/B5</f>
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <f>C4/C5</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <f>(2*B3)/(2*B3+B4+C3)</f>
+        <v>0.88571428571428568</v>
       </c>
     </row>
   </sheetData>

--- a/paper_tables.xlsx
+++ b/paper_tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/pfHRP_MLModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5758452-4FC2-4AF7-AADF-00058712A9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17EF5DA-F418-0043-ADAF-C0A998BE0B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="3495" windowWidth="18120" windowHeight="12630" firstSheet="1" activeTab="2" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
+    <workbookView xWindow="1800" yWindow="1460" windowWidth="25140" windowHeight="12640" firstSheet="1" activeTab="3" xr2:uid="{90FC2CFC-1E1B-44CB-A48A-2F387CB992ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Type Prevalence by Loc" sheetId="2" r:id="rId2"/>
     <sheet name="DNA - Test Matches" sheetId="3" r:id="rId3"/>
-    <sheet name="RDTqPCR Confustion Matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="chi-sq" sheetId="5" r:id="rId4"/>
+    <sheet name="RDTqPCR Confustion Matrix" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="154">
   <si>
     <t>Precision</t>
   </si>
@@ -432,6 +433,90 @@
   </si>
   <si>
     <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Voting Ensemble
+Types 2 and 7</t>
+  </si>
+  <si>
+    <t>Extreme Random Trees
+Types 2 and 7</t>
+  </si>
+  <si>
+    <t>Extreme Random Trees
+Types 3 and 5 and 10</t>
+  </si>
+  <si>
+    <t>Voting Ensemble
+Types 3 and 5 and 10</t>
+  </si>
+  <si>
+    <t>Extreme Random Trees
+Types 1 thru 24</t>
+  </si>
+  <si>
+    <t>Voting Ensemble
+Types 1 thru 24</t>
+  </si>
+  <si>
+    <t>32.668
+(1.093e-08)</t>
+  </si>
+  <si>
+    <t>67
+(2.715e-16)</t>
+  </si>
+  <si>
+    <t>7.1373
+(0.00755)</t>
+  </si>
+  <si>
+    <t>3.1485
+(0.076)</t>
+  </si>
+  <si>
+    <t>8.963
+(0.002755)</t>
+  </si>
+  <si>
+    <t>9.9844
+(0.001579)</t>
+  </si>
+  <si>
+    <t>11.981
+(0.0005375)</t>
+  </si>
+  <si>
+    <t>10.073
+(0.001505)</t>
+  </si>
+  <si>
+    <t>10.338
+(0.001303)</t>
+  </si>
+  <si>
+    <t>10.866
+(0.0009797)</t>
+  </si>
+  <si>
+    <t>12.55
+(0.0003962)</t>
+  </si>
+  <si>
+    <t>15.5
+(8.249e-05)</t>
+  </si>
+  <si>
+    <t>Types 2 and 7</t>
+  </si>
+  <si>
+    <t>Types 1 thru 24</t>
+  </si>
+  <si>
+    <t>Types 3 and 5 and 10</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
@@ -484,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,6 +580,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,14 +911,14 @@
       <selection activeCell="B1" sqref="B1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -850,11 +944,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -876,9 +970,9 @@
         <v>0.64136000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,9 +992,9 @@
         <v>0.64136000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -922,9 +1016,9 @@
         <v>0.79981999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,9 +1038,9 @@
         <v>0.79981999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -968,9 +1062,9 @@
         <v>0.82838999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,9 +1105,9 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1053,7 +1147,7 @@
         <v>0.9509803921568627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1073,7 +1167,7 @@
         <v>0.92156862745098034</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1093,7 +1187,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1113,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1133,7 +1227,7 @@
         <v>0.55882352941176472</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1153,7 +1247,7 @@
         <v>0.92156862745098034</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1173,7 +1267,7 @@
         <v>0.9509803921568627</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1193,7 +1287,7 @@
         <v>0.78431372549019607</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1213,7 +1307,7 @@
         <v>0.78431372549019607</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1233,7 +1327,7 @@
         <v>0.69607843137254899</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1253,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1273,7 +1367,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1293,7 +1387,7 @@
         <v>0.57843137254901966</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1313,7 +1407,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1333,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1353,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1373,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1393,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1413,7 +1507,7 @@
         <v>0.97058823529411764</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1433,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1453,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1473,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1493,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1522,13 +1616,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2570E-2E87-432E-894F-42B5D3587C38}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1568,7 +1662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1654,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1717,7 +1811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1757,7 +1851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1774,7 +1868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1820,7 +1914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1837,7 +1931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1883,7 +1977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1906,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +2023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1952,7 +2046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1975,7 +2069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1992,7 +2086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2015,7 +2109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +2126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2049,7 +2143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2072,7 +2166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2095,7 +2189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2112,7 +2206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2129,7 +2223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2152,7 +2246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2175,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2221,7 +2315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -2244,7 +2338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2261,7 +2355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2284,7 +2378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2301,7 +2395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2318,7 +2412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2335,7 +2429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2352,7 +2446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +2492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2421,7 +2515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -2438,7 +2532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -2461,7 +2555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2484,7 +2578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -2507,7 +2601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -2530,7 +2624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -2553,7 +2647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2576,7 +2670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -2599,7 +2693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2622,7 +2716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -2639,7 +2733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -2662,7 +2756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -2685,7 +2779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2708,7 +2802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -2725,7 +2819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -2759,7 +2853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -2782,7 +2876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -2799,7 +2893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -2816,7 +2910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +2933,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -2856,7 +2950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -2873,7 +2967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2896,7 +2990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2913,7 +3007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -2930,7 +3024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -2947,7 +3041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2970,7 +3064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -2987,7 +3081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -3010,7 +3104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -3033,7 +3127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -3050,7 +3144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -3073,7 +3167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -3090,7 +3184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -3113,7 +3207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -3136,7 +3230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -3159,7 +3253,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -3182,7 +3276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -3205,7 +3299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3228,7 +3322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -3251,7 +3345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -3274,7 +3368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -3297,7 +3391,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -3320,7 +3414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -3343,7 +3437,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -3360,7 +3454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -3383,7 +3477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -3406,7 +3500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -3429,7 +3523,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -3452,7 +3546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3569,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -3498,7 +3592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -3515,7 +3609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3532,7 +3626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3549,7 +3643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -3566,7 +3660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -3589,7 +3683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -3612,7 +3706,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -3635,6 +3729,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4654D2EA-4378-564E-B113-E4E8F742E7AB}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C20C9-786A-4054-90F3-8E11C8948E08}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3642,20 +3914,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -3669,7 +3941,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3683,7 +3955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3697,7 +3969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3711,7 +3983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3992,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -3729,7 +4001,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -3738,7 +4010,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>131</v>
       </c>
